--- a/team_specific_matrix/Texas A&M_A.xlsx
+++ b/team_specific_matrix/Texas A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2433460076045627</v>
+        <v>0.2305389221556886</v>
       </c>
       <c r="C2">
-        <v>0.5171102661596958</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02281368821292776</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1482889733840304</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06844106463878327</v>
+        <v>0.07784431137724551</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7214285714285714</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2071428571428572</v>
+        <v>0.1977401129943503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.15625</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P4">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0948905109489051</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0072992700729927</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.072992700729927</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2627737226277372</v>
+        <v>0.2690058479532164</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0218978102189781</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.145985401459854</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="R6">
-        <v>0.0291970802919708</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="S6">
-        <v>0.364963503649635</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103448275862069</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01724137931034483</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06896551724137931</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1982758620689655</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008620689655172414</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1551724137931035</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="R7">
-        <v>0.0603448275862069</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S7">
-        <v>0.3879310344827586</v>
+        <v>0.3710691823899371</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1078838174273859</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03319502074688797</v>
+        <v>0.0264026402640264</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02904564315352697</v>
+        <v>0.03630363036303631</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1825726141078838</v>
+        <v>0.1848184818481848</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004149377593360996</v>
+        <v>0.006600660066006601</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1618257261410788</v>
+        <v>0.1749174917491749</v>
       </c>
       <c r="R8">
-        <v>0.06224066390041494</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="S8">
-        <v>0.4190871369294606</v>
+        <v>0.3927392739273927</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1298701298701299</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01298701298701299</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E9">
-        <v>0.006493506493506494</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2662337662337662</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006493506493506494</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="S9">
-        <v>0.2727272727272727</v>
+        <v>0.2688172043010753</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1322916666666667</v>
+        <v>0.1327361563517915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01979166666666667</v>
+        <v>0.02361563517915309</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06875000000000001</v>
+        <v>0.06270358306188925</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1802083333333333</v>
+        <v>0.1856677524429967</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01354166666666667</v>
+        <v>0.01221498371335505</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1885416666666667</v>
+        <v>0.1872964169381107</v>
       </c>
       <c r="R10">
-        <v>0.08229166666666667</v>
+        <v>0.07573289902280131</v>
       </c>
       <c r="S10">
-        <v>0.3145833333333333</v>
+        <v>0.3200325732899023</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1521739130434783</v>
+        <v>0.175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2282608695652174</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5108695652173914</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02173913043478261</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7826086956521739</v>
+        <v>0.7768595041322314</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1413043478260869</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="K12">
-        <v>0.0108695652173913</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="L12">
-        <v>0.02173913043478261</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.03305785123966942</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8076923076923077</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1538461538461539</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006535947712418301</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2156862745098039</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="I15">
-        <v>0.08496732026143791</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="J15">
-        <v>0.392156862745098</v>
+        <v>0.4247311827956989</v>
       </c>
       <c r="K15">
-        <v>0.06535947712418301</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0261437908496732</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0392156862745098</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1699346405228758</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01910828025477707</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1401273885350318</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I16">
-        <v>0.1210191082802548</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="J16">
-        <v>0.4394904458598726</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="K16">
-        <v>0.06369426751592357</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02547770700636943</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="O16">
-        <v>0.03821656050955414</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1464968152866242</v>
+        <v>0.1476190476190476</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01773049645390071</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1418439716312057</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="I17">
-        <v>0.09574468085106383</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="J17">
-        <v>0.4361702127659575</v>
+        <v>0.440771349862259</v>
       </c>
       <c r="K17">
-        <v>0.0851063829787234</v>
+        <v>0.07713498622589532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01418439716312057</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06382978723404255</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1453900709219858</v>
+        <v>0.140495867768595</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1271186440677966</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="I18">
-        <v>0.1016949152542373</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J18">
-        <v>0.4576271186440678</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K18">
-        <v>0.1186440677966102</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="N18">
-        <v>0.008474576271186441</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="O18">
-        <v>0.07627118644067797</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09322033898305085</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01686121919584955</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1686121919584955</v>
+        <v>0.1670124481327801</v>
       </c>
       <c r="I19">
-        <v>0.1050583657587549</v>
+        <v>0.09854771784232365</v>
       </c>
       <c r="J19">
-        <v>0.3865110246433204</v>
+        <v>0.3890041493775934</v>
       </c>
       <c r="K19">
-        <v>0.1024643320363165</v>
+        <v>0.1058091286307054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01556420233463035</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="N19">
-        <v>0.001297016861219196</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O19">
-        <v>0.09727626459143969</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1063553826199741</v>
+        <v>0.1047717842323651</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas A&M_A.xlsx
+++ b/team_specific_matrix/Texas A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2305389221556886</v>
+        <v>0.2246575342465753</v>
       </c>
       <c r="C2">
-        <v>0.5209580838323353</v>
+        <v>0.5315068493150685</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02395209580838323</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1467065868263473</v>
+        <v>0.1424657534246575</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07784431137724551</v>
+        <v>0.07671232876712329</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01694915254237288</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03954802259887006</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7457627118644068</v>
+        <v>0.7563451776649747</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1977401129943503</v>
+        <v>0.1928934010152284</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1458333333333333</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02083333333333333</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P4">
-        <v>0.6875</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1458333333333333</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07602339181286549</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01754385964912281</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07602339181286549</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2690058479532164</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02339181286549707</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1695906432748538</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R6">
-        <v>0.03508771929824561</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1069182389937107</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02515723270440252</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06289308176100629</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1949685534591195</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006289308176100629</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1383647798742138</v>
+        <v>0.1345029239766082</v>
       </c>
       <c r="R7">
-        <v>0.09433962264150944</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S7">
-        <v>0.3710691823899371</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1188118811881188</v>
+        <v>0.1048158640226629</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0264026402640264</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03630363036303631</v>
+        <v>0.0424929178470255</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1848184818481848</v>
+        <v>0.1756373937677054</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006600660066006601</v>
+        <v>0.0113314447592068</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749174917491749</v>
+        <v>0.1558073654390935</v>
       </c>
       <c r="R8">
-        <v>0.0594059405940594</v>
+        <v>0.06232294617563739</v>
       </c>
       <c r="S8">
-        <v>0.3927392739273927</v>
+        <v>0.424929178470255</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1344086021505376</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02150537634408602</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E9">
-        <v>0.005376344086021506</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F9">
-        <v>0.06989247311827956</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2580645161290323</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005376344086021506</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1451612903225807</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="R9">
-        <v>0.09139784946236559</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S9">
-        <v>0.2688172043010753</v>
+        <v>0.2822966507177033</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1327361563517915</v>
+        <v>0.1336238198983297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02361563517915309</v>
+        <v>0.02396514161220044</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06270358306188925</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1856677524429967</v>
+        <v>0.1801016702977487</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01221498371335505</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1872964169381107</v>
+        <v>0.1902687000726216</v>
       </c>
       <c r="R10">
-        <v>0.07573289902280131</v>
+        <v>0.074800290486565</v>
       </c>
       <c r="S10">
-        <v>0.3200325732899023</v>
+        <v>0.3231663035584604</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.175</v>
+        <v>0.1653846153846154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07083333333333333</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="K11">
-        <v>0.2291666666666667</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="L11">
-        <v>0.5083333333333333</v>
+        <v>0.5115384615384615</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01666666666666667</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7768595041322314</v>
+        <v>0.7786259541984732</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1487603305785124</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="K12">
-        <v>0.01652892561983471</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="L12">
-        <v>0.02479338842975207</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03305785123966942</v>
+        <v>0.03053435114503817</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7631578947368421</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005376344086021506</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1989247311827957</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="I15">
-        <v>0.08064516129032258</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="J15">
-        <v>0.4247311827956989</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K15">
-        <v>0.05376344086021505</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03225806451612903</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03225806451612903</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1720430107526882</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01904761904761905</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1333333333333333</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I16">
-        <v>0.1238095238095238</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="J16">
-        <v>0.4142857142857143</v>
+        <v>0.4145299145299146</v>
       </c>
       <c r="K16">
-        <v>0.09523809523809523</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N16">
-        <v>0.004761904761904762</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O16">
-        <v>0.0380952380952381</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1476190476190476</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01377410468319559</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1570247933884298</v>
+        <v>0.1559405940594059</v>
       </c>
       <c r="I17">
-        <v>0.09917355371900827</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="J17">
-        <v>0.440771349862259</v>
+        <v>0.4430693069306931</v>
       </c>
       <c r="K17">
-        <v>0.07713498622589532</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01377410468319559</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="O17">
-        <v>0.05785123966942149</v>
+        <v>0.05198019801980198</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.140495867768595</v>
+        <v>0.1386138613861386</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1292517006802721</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="I18">
-        <v>0.08163265306122448</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="J18">
-        <v>0.4761904761904762</v>
+        <v>0.4573170731707317</v>
       </c>
       <c r="K18">
-        <v>0.1156462585034014</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0272108843537415</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="N18">
-        <v>0.006802721088435374</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="O18">
-        <v>0.06802721088435375</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09523809523809523</v>
+        <v>0.1036585365853658</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01867219917012448</v>
+        <v>0.01987353206865402</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1670124481327801</v>
+        <v>0.1725383920505872</v>
       </c>
       <c r="I19">
-        <v>0.09854771784232365</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J19">
-        <v>0.3890041493775934</v>
+        <v>0.3857271906052394</v>
       </c>
       <c r="K19">
-        <v>0.1058091286307054</v>
+        <v>0.0993676603432701</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01867219917012448</v>
+        <v>0.01897018970189702</v>
       </c>
       <c r="N19">
-        <v>0.002074688796680498</v>
+        <v>0.001806684733514002</v>
       </c>
       <c r="O19">
-        <v>0.0954356846473029</v>
+        <v>0.0966576332429991</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1047717842323651</v>
+        <v>0.1074977416440831</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas A&M_A.xlsx
+++ b/team_specific_matrix/Texas A&M_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2246575342465753</v>
+        <v>0.2210796915167095</v>
       </c>
       <c r="C2">
-        <v>0.5315068493150685</v>
+        <v>0.532133676092545</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02465753424657534</v>
+        <v>0.02570694087403599</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1424657534246575</v>
+        <v>0.141388174807198</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07671232876712329</v>
+        <v>0.07969151670951156</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01522842639593909</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03553299492385787</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7563451776649747</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1928934010152284</v>
+        <v>0.1952380952380952</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1320754716981132</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01886792452830189</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P4">
-        <v>0.6981132075471698</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1509433962264151</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08205128205128205</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2769230769230769</v>
+        <v>0.280952380952381</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02051282051282051</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1692307692307692</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R6">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="S6">
-        <v>0.3384615384615385</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02339181286549707</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06432748538011696</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2046783625730994</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005847953216374269</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1345029239766082</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="R7">
-        <v>0.08771929824561403</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="S7">
-        <v>0.3684210526315789</v>
+        <v>0.3651685393258427</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1048158640226629</v>
+        <v>0.1074168797953964</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0226628895184136</v>
+        <v>0.02557544757033248</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0424929178470255</v>
+        <v>0.04603580562659847</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1756373937677054</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0113314447592068</v>
+        <v>0.01023017902813299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1558073654390935</v>
+        <v>0.1585677749360614</v>
       </c>
       <c r="R8">
-        <v>0.06232294617563739</v>
+        <v>0.06649616368286446</v>
       </c>
       <c r="S8">
-        <v>0.424929178470255</v>
+        <v>0.4168797953964195</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1244019138755981</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02392344497607655</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9">
-        <v>0.004784688995215311</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="F9">
-        <v>0.07177033492822966</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2440191387559809</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009569377990430622</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1435406698564593</v>
+        <v>0.1441441441441441</v>
       </c>
       <c r="R9">
-        <v>0.09569377990430622</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="S9">
-        <v>0.2822966507177033</v>
+        <v>0.2837837837837838</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1336238198983297</v>
+        <v>0.1335149863760218</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02396514161220044</v>
+        <v>0.02452316076294278</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06172839506172839</v>
+        <v>0.06198910081743869</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1801016702977487</v>
+        <v>0.1777929155313351</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01234567901234568</v>
+        <v>0.01226158038147139</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1902687000726216</v>
+        <v>0.1934604904632153</v>
       </c>
       <c r="R10">
-        <v>0.074800290486565</v>
+        <v>0.07425068119891008</v>
       </c>
       <c r="S10">
-        <v>0.3231663035584604</v>
+        <v>0.3222070844686649</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1653846153846154</v>
+        <v>0.1611721611721612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08076923076923077</v>
+        <v>0.08424908424908426</v>
       </c>
       <c r="K11">
-        <v>0.2230769230769231</v>
+        <v>0.2234432234432235</v>
       </c>
       <c r="L11">
-        <v>0.5115384615384615</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01923076923076923</v>
+        <v>0.01831501831501832</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="G12">
-        <v>0.7786259541984732</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1526717557251908</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="K12">
-        <v>0.01526717557251908</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L12">
-        <v>0.02290076335877863</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03053435114503817</v>
+        <v>0.02898550724637681</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7209302325581395</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004608294930875576</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1981566820276498</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.07834101382488479</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="J15">
-        <v>0.4285714285714285</v>
+        <v>0.4212765957446808</v>
       </c>
       <c r="K15">
-        <v>0.05990783410138249</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02764976958525346</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04147465437788019</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1612903225806452</v>
+        <v>0.1617021276595745</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0170940170940171</v>
+        <v>0.016</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1367521367521368</v>
+        <v>0.144</v>
       </c>
       <c r="I16">
-        <v>0.1196581196581197</v>
+        <v>0.112</v>
       </c>
       <c r="J16">
-        <v>0.4145299145299146</v>
+        <v>0.428</v>
       </c>
       <c r="K16">
-        <v>0.08974358974358974</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.024</v>
       </c>
       <c r="N16">
-        <v>0.004273504273504274</v>
+        <v>0.004</v>
       </c>
       <c r="O16">
-        <v>0.03846153846153846</v>
+        <v>0.04</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01485148514851485</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1559405940594059</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I17">
-        <v>0.1014851485148515</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.4430693069306931</v>
+        <v>0.4340909090909091</v>
       </c>
       <c r="K17">
-        <v>0.07920792079207921</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01237623762376238</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N17">
-        <v>0.002475247524752475</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="O17">
-        <v>0.05198019801980198</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1386138613861386</v>
+        <v>0.1431818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1402439024390244</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="I18">
-        <v>0.07926829268292683</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.4573170731707317</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="K18">
-        <v>0.1097560975609756</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03048780487804878</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N18">
-        <v>0.006097560975609756</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="O18">
-        <v>0.07317073170731707</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1036585365853658</v>
+        <v>0.1028571428571429</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01987353206865402</v>
+        <v>0.01937657961246841</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1725383920505872</v>
+        <v>0.1786015164279697</v>
       </c>
       <c r="I19">
-        <v>0.0975609756097561</v>
+        <v>0.09688289806234204</v>
       </c>
       <c r="J19">
-        <v>0.3857271906052394</v>
+        <v>0.3833192923336142</v>
       </c>
       <c r="K19">
-        <v>0.0993676603432701</v>
+        <v>0.09772535804549284</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01897018970189702</v>
+        <v>0.01937657961246841</v>
       </c>
       <c r="N19">
-        <v>0.001806684733514002</v>
+        <v>0.001684919966301601</v>
       </c>
       <c r="O19">
-        <v>0.0966576332429991</v>
+        <v>0.09519797809604044</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1074977416440831</v>
+        <v>0.1078348778433024</v>
       </c>
     </row>
   </sheetData>
